--- a/src/main/resources/static/outputReports/kiaEngineerReport/Чек-лист ИТ за период.xlsx
+++ b/src/main/resources/static/outputReports/kiaEngineerReport/Чек-лист ИТ за период.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="48">
   <si>
     <t>Фамилия ИТ</t>
   </si>
@@ -145,22 +145,19 @@
     <t>Период</t>
   </si>
   <si>
-    <t>Шабанов</t>
-  </si>
-  <si>
-    <t>2023-04-01</t>
-  </si>
-  <si>
-    <t>2023-06-12</t>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>2023-05-06</t>
+  </si>
+  <si>
+    <t>2023-06-14</t>
   </si>
   <si>
     <t>YES</t>
   </si>
   <si>
     <t>NO</t>
-  </si>
-  <si>
-    <t>NA</t>
   </si>
 </sst>
 </file>
@@ -1098,7 +1095,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N41"/>
+  <dimension ref="A1:M41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="L6" sqref="L6"/>
@@ -1134,13 +1131,10 @@
       <c r="J2" s="17"/>
       <c r="K2" s="17"/>
       <c r="L2" s="9" t="n">
-        <v>45077.63596064815</v>
+        <v>45078.380266203705</v>
       </c>
       <c r="M2" s="9" t="n">
-        <v>45034.63596064815</v>
-      </c>
-      <c r="N2" s="9" t="n">
-        <v>45034.63596064815</v>
+        <v>45078.38296296296</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1150,7 +1144,7 @@
       <c r="B3" s="11"/>
       <c r="C3" s="12"/>
       <c r="D3" s="2" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="I3" s="16" t="s">
         <v>2</v>
@@ -1158,13 +1152,10 @@
       <c r="J3" s="17"/>
       <c r="K3" s="17"/>
       <c r="L3" s="3" t="n">
-        <v>86756.0</v>
+        <v>11111.0</v>
       </c>
       <c r="M3" s="3" t="n">
-        <v>86757.0</v>
-      </c>
-      <c r="N3" s="3" t="n">
-        <v>86758.0</v>
+        <v>33333.0</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1190,10 +1181,7 @@
         <v>76.0</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>64.0</v>
-      </c>
-      <c r="N4" s="4" t="n">
-        <v>21.0</v>
+        <v>46.0</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1212,7 +1200,6 @@
       <c r="K5" s="25"/>
       <c r="L5" s="5"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
     </row>
     <row r="6" spans="1:12" ht="15" x14ac:dyDescent="0.3">
       <c r="A6" s="21" t="s">
@@ -1234,9 +1221,6 @@
       <c r="M6" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="N6" s="6" t="s">
-        <v>47</v>
-      </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="18" t="s">
@@ -1258,9 +1242,6 @@
       <c r="M7" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="N7" s="3" t="s">
-        <v>47</v>
-      </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="18" t="s">
@@ -1277,12 +1258,9 @@
       <c r="J8" s="19"/>
       <c r="K8" s="20"/>
       <c r="L8" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="N8" s="3" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1306,9 +1284,6 @@
       <c r="M9" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="N9" s="3" t="s">
-        <v>47</v>
-      </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="18" t="s">
@@ -1330,9 +1305,6 @@
       <c r="M10" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="N10" s="3" t="s">
-        <v>47</v>
-      </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="18" t="s">
@@ -1349,13 +1321,10 @@
       <c r="J11" s="19"/>
       <c r="K11" s="20"/>
       <c r="L11" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="N11" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
@@ -1373,12 +1342,9 @@
       <c r="J12" s="19"/>
       <c r="K12" s="20"/>
       <c r="L12" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="N12" s="3" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1397,12 +1363,9 @@
       <c r="J13" s="19"/>
       <c r="K13" s="20"/>
       <c r="L13" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="N13" s="3" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1421,12 +1384,9 @@
       <c r="J14" s="19"/>
       <c r="K14" s="20"/>
       <c r="L14" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="N14" s="3" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1445,12 +1405,9 @@
       <c r="J15" s="19"/>
       <c r="K15" s="20"/>
       <c r="L15" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="N15" s="3" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1472,10 +1429,7 @@
         <v>46</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="N16" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -1498,9 +1452,6 @@
       <c r="M17" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="N17" s="3" t="s">
-        <v>47</v>
-      </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="18" t="s">
@@ -1520,9 +1471,6 @@
         <v>46</v>
       </c>
       <c r="M18" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="N18" s="3" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1541,12 +1489,9 @@
       <c r="J19" s="19"/>
       <c r="K19" s="20"/>
       <c r="L19" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M19" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="N19" s="3" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1565,12 +1510,9 @@
       <c r="J20" s="19"/>
       <c r="K20" s="20"/>
       <c r="L20" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M20" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="N20" s="3" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1589,12 +1531,9 @@
       <c r="J21" s="27"/>
       <c r="K21" s="28"/>
       <c r="L21" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M21" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="N21" s="7" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1614,7 +1553,6 @@
       <c r="K22" s="25"/>
       <c r="L22" s="5"/>
       <c r="M22" s="5"/>
-      <c r="N22" s="5"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="18" t="s">
@@ -1631,12 +1569,9 @@
       <c r="J23" s="19"/>
       <c r="K23" s="20"/>
       <c r="L23" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M23" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="N23" s="6" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1655,12 +1590,9 @@
       <c r="J24" s="19"/>
       <c r="K24" s="20"/>
       <c r="L24" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M24" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="N24" s="3" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1679,13 +1611,10 @@
       <c r="J25" s="19"/>
       <c r="K25" s="20"/>
       <c r="L25" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="M25" s="3" t="s">
         <v>46</v>
-      </c>
-      <c r="N25" s="3" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
@@ -1708,9 +1637,6 @@
       <c r="M26" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="N26" s="3" t="s">
-        <v>46</v>
-      </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="18" t="s">
@@ -1727,12 +1653,9 @@
       <c r="J27" s="19"/>
       <c r="K27" s="20"/>
       <c r="L27" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M27" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="N27" s="3" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1754,10 +1677,7 @@
         <v>46</v>
       </c>
       <c r="M28" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="N28" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1776,7 +1696,6 @@
       <c r="K29" s="25"/>
       <c r="L29" s="5"/>
       <c r="M29" s="5"/>
-      <c r="N29" s="5"/>
     </row>
     <row r="30" spans="1:12" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="36" t="s">
@@ -1798,9 +1717,6 @@
       <c r="M30" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="N30" s="6" t="s">
-        <v>47</v>
-      </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" s="18" t="s">
@@ -1817,12 +1733,9 @@
       <c r="J31" s="19"/>
       <c r="K31" s="20"/>
       <c r="L31" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="M31" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="N31" s="3" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1841,13 +1754,10 @@
       <c r="J32" s="30"/>
       <c r="K32" s="31"/>
       <c r="L32" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="M32" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="N32" s="7" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1866,7 +1776,6 @@
       <c r="K33" s="25"/>
       <c r="L33" s="5"/>
       <c r="M33" s="5"/>
-      <c r="N33" s="5"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" s="38" t="s">
@@ -1888,9 +1797,6 @@
       <c r="M34" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="N34" s="6" t="s">
-        <v>47</v>
-      </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" s="18" t="s">
@@ -1912,9 +1818,6 @@
       <c r="M35" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="N35" s="3" t="s">
-        <v>47</v>
-      </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" s="18" t="s">
@@ -1936,9 +1839,6 @@
       <c r="M36" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="N36" s="3" t="s">
-        <v>47</v>
-      </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" s="18" t="s">
@@ -1960,9 +1860,6 @@
       <c r="M37" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="N37" s="3" t="s">
-        <v>47</v>
-      </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" s="18" t="s">
@@ -1984,9 +1881,6 @@
       <c r="M38" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="N38" s="3" t="s">
-        <v>47</v>
-      </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" s="18" t="s">
@@ -2008,9 +1902,6 @@
       <c r="M39" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="N39" s="3" t="s">
-        <v>47</v>
-      </c>
     </row>
     <row r="40" spans="1:12" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="42" t="s">
@@ -2030,10 +1921,7 @@
         <v>46</v>
       </c>
       <c r="M40" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="N40" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="41" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2054,9 +1942,6 @@
         <v>46</v>
       </c>
       <c r="M41" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="N41" s="8" t="s">
         <v>46</v>
       </c>
     </row>
